--- a/work-index-preliminaryWork/schnitzler-werke-in-pmb.xlsx
+++ b/work-index-preliminaryWork/schnitzler-werke-in-pmb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gviktoria\Documents\Schnitzler_Tagebuch\schnitzler-tagebuch-data\work-index-preliminaryWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgroiss\Documents\schnitzler-tagebuch-data\work-index-preliminaryWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1523,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1542,1858 +1542,1858 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>29819</v>
+        <v>33131</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>29821</v>
+        <v>30811</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>29823</v>
+        <v>32276</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>29831</v>
+        <v>32278</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>29833</v>
+        <v>35702</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>29843</v>
+        <v>30299</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>29845</v>
+        <v>30005</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>29853</v>
+        <v>30159</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>29855</v>
+        <v>33728</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>29857</v>
+        <v>31637</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>29859</v>
+        <v>30069</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>29863</v>
+        <v>29935</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>29865</v>
+        <v>30161</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>29869</v>
+        <v>30033</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16">
-        <v>29873</v>
+        <v>30647</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>29877</v>
+        <v>30181</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>29893</v>
+        <v>33019</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>29899</v>
+        <v>29821</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>29903</v>
+        <v>33001</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>29905</v>
+        <v>33730</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22">
-        <v>29917</v>
+        <v>33688</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>29921</v>
+        <v>33732</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24">
-        <v>29923</v>
+        <v>30919</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25">
-        <v>29931</v>
+        <v>33734</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>29935</v>
+        <v>33502</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27">
-        <v>29937</v>
+        <v>32348</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>29941</v>
+        <v>33205</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>29951</v>
+        <v>30453</v>
       </c>
       <c r="C29" t="s">
-        <v>218</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>29957</v>
+        <v>33736</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>29985</v>
+        <v>30053</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>30005</v>
+        <v>33111</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>30033</v>
+        <v>30971</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>30051</v>
+        <v>29921</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>30053</v>
+        <v>30143</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>30057</v>
+        <v>32097</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37">
-        <v>30069</v>
+        <v>33738</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38">
-        <v>30073</v>
+        <v>31547</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39">
-        <v>30075</v>
+        <v>30169</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40">
-        <v>30117</v>
+        <v>29823</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41">
-        <v>30143</v>
+        <v>30655</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42">
-        <v>30145</v>
+        <v>30285</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43">
-        <v>30151</v>
+        <v>30057</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>30159</v>
+        <v>30349</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>30161</v>
+        <v>33742</v>
       </c>
       <c r="C45" t="s">
-        <v>219</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>30163</v>
+        <v>30219</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>30165</v>
+        <v>30207</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>30167</v>
+        <v>30615</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>30169</v>
+        <v>33744</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50">
-        <v>30181</v>
+        <v>30145</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51">
-        <v>30195</v>
+        <v>33746</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52">
-        <v>30201</v>
+        <v>30649</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53">
-        <v>30203</v>
+        <v>33195</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54">
-        <v>30205</v>
+        <v>29831</v>
       </c>
       <c r="C54" t="s">
-        <v>209</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55">
-        <v>30207</v>
+        <v>29985</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56">
-        <v>30209</v>
+        <v>33748</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57">
-        <v>30211</v>
+        <v>30983</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58">
-        <v>30213</v>
+        <v>33097</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59">
-        <v>30215</v>
+        <v>33750</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60">
-        <v>30217</v>
+        <v>30775</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61">
-        <v>30219</v>
+        <v>30051</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62">
-        <v>30257</v>
+        <v>29843</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63">
-        <v>30277</v>
+        <v>32562</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64">
-        <v>30285</v>
+        <v>33558</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65">
-        <v>30287</v>
+        <v>29937</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66">
-        <v>30299</v>
+        <v>30319</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67">
-        <v>30301</v>
+        <v>30893</v>
       </c>
       <c r="C67" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68">
-        <v>30313</v>
+        <v>33752</v>
       </c>
       <c r="C68" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69">
-        <v>30319</v>
+        <v>33754</v>
       </c>
       <c r="C69" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70">
-        <v>30321</v>
+        <v>33756</v>
       </c>
       <c r="C70" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71">
-        <v>30349</v>
+        <v>33153</v>
       </c>
       <c r="C71" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72">
-        <v>30389</v>
+        <v>29873</v>
       </c>
       <c r="C72" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73">
-        <v>30391</v>
+        <v>33107</v>
       </c>
       <c r="C73" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74">
-        <v>30403</v>
+        <v>29905</v>
       </c>
       <c r="C74" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75">
-        <v>30407</v>
+        <v>29857</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76">
-        <v>30451</v>
+        <v>30215</v>
       </c>
       <c r="C76" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77">
-        <v>30453</v>
+        <v>30953</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78">
-        <v>30486</v>
+        <v>30257</v>
       </c>
       <c r="C78" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79">
-        <v>30615</v>
+        <v>30217</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80">
-        <v>30625</v>
+        <v>33758</v>
       </c>
       <c r="C80" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81">
-        <v>30647</v>
+        <v>33760</v>
       </c>
       <c r="C81" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82">
-        <v>30649</v>
+        <v>30781</v>
       </c>
       <c r="C82" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83">
-        <v>30655</v>
+        <v>29923</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84">
-        <v>30683</v>
+        <v>33762</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85">
-        <v>30717</v>
+        <v>30407</v>
       </c>
       <c r="C85" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86">
-        <v>30749</v>
+        <v>33764</v>
       </c>
       <c r="C86" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87">
-        <v>30751</v>
+        <v>33766</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88">
-        <v>30753</v>
+        <v>33768</v>
       </c>
       <c r="C88" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89">
-        <v>30775</v>
+        <v>33770</v>
       </c>
       <c r="C89" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90">
-        <v>30781</v>
+        <v>30165</v>
       </c>
       <c r="C90" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91">
-        <v>30797</v>
+        <v>31965</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92">
-        <v>30811</v>
+        <v>33061</v>
       </c>
       <c r="C92" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93">
-        <v>30817</v>
+        <v>30955</v>
       </c>
       <c r="C93" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94">
-        <v>30819</v>
+        <v>33774</v>
       </c>
       <c r="C94" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95">
-        <v>30843</v>
+        <v>30749</v>
       </c>
       <c r="C95" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96">
-        <v>30851</v>
+        <v>30751</v>
       </c>
       <c r="C96" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97">
-        <v>30863</v>
+        <v>30075</v>
       </c>
       <c r="C97" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98">
-        <v>30881</v>
+        <v>32460</v>
       </c>
       <c r="C98" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99">
-        <v>30893</v>
+        <v>29865</v>
       </c>
       <c r="C99" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100">
-        <v>30919</v>
+        <v>33776</v>
       </c>
       <c r="C100" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101">
-        <v>30945</v>
+        <v>29845</v>
       </c>
       <c r="C101" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102">
-        <v>30953</v>
+        <v>33778</v>
       </c>
       <c r="C102" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103">
-        <v>30955</v>
+        <v>35505</v>
       </c>
       <c r="C103" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104">
-        <v>30971</v>
+        <v>33780</v>
       </c>
       <c r="C104" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105">
-        <v>30981</v>
+        <v>33782</v>
       </c>
       <c r="C105" t="s">
-        <v>229</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106">
-        <v>30983</v>
+        <v>33784</v>
       </c>
       <c r="C106" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107">
-        <v>31311</v>
+        <v>30301</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108">
-        <v>31357</v>
+        <v>30167</v>
       </c>
       <c r="C108" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109">
-        <v>31377</v>
+        <v>33786</v>
       </c>
       <c r="C109" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110">
-        <v>31429</v>
+        <v>30213</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111">
-        <v>31447</v>
+        <v>31975</v>
       </c>
       <c r="C111" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112">
-        <v>31547</v>
+        <v>29877</v>
       </c>
       <c r="C112" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113">
-        <v>31637</v>
+        <v>33790</v>
       </c>
       <c r="C113" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114">
-        <v>31881</v>
+        <v>33792</v>
       </c>
       <c r="C114" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115">
-        <v>31885</v>
+        <v>33794</v>
       </c>
       <c r="C115" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116">
-        <v>31965</v>
+        <v>33796</v>
       </c>
       <c r="C116" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117">
-        <v>31975</v>
+        <v>30625</v>
       </c>
       <c r="C117" t="s">
-        <v>213</v>
+        <v>61</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="C118" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119">
-        <v>32049</v>
+        <v>33798</v>
       </c>
       <c r="C119" t="s">
-        <v>92</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120">
-        <v>32051</v>
+        <v>30819</v>
       </c>
       <c r="C120" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121">
-        <v>32097</v>
+        <v>33800</v>
       </c>
       <c r="C121" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B122">
-        <v>32129</v>
+        <v>29833</v>
       </c>
       <c r="C122" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123">
-        <v>32131</v>
+        <v>30391</v>
       </c>
       <c r="C123" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124">
-        <v>32133</v>
+        <v>33802</v>
       </c>
       <c r="C124" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B125">
-        <v>32203</v>
+        <v>33804</v>
       </c>
       <c r="C125" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126">
-        <v>32274</v>
+        <v>30683</v>
       </c>
       <c r="C126" t="s">
-        <v>231</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127">
-        <v>32276</v>
+        <v>30201</v>
       </c>
       <c r="C127" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B128">
-        <v>32278</v>
+        <v>33806</v>
       </c>
       <c r="C128" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129">
-        <v>32348</v>
+        <v>33808</v>
       </c>
       <c r="C129" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130">
-        <v>33758</v>
+        <v>33183</v>
       </c>
       <c r="C130" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131">
-        <v>32460</v>
+        <v>33163</v>
       </c>
       <c r="C131" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132">
-        <v>32562</v>
+        <v>33810</v>
       </c>
       <c r="C132" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133">
-        <v>32586</v>
+        <v>33812</v>
       </c>
       <c r="C133" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134">
-        <v>32672</v>
+        <v>31357</v>
       </c>
       <c r="C134" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135">
-        <v>32816</v>
+        <v>32586</v>
       </c>
       <c r="C135" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136">
-        <v>33001</v>
+        <v>33814</v>
       </c>
       <c r="C136" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137">
-        <v>33019</v>
+        <v>33816</v>
       </c>
       <c r="C137" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138">
-        <v>33061</v>
+        <v>33123</v>
       </c>
       <c r="C138" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139">
-        <v>33097</v>
+        <v>29893</v>
       </c>
       <c r="C139" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140">
-        <v>33107</v>
+        <v>30195</v>
       </c>
       <c r="C140" t="s">
-        <v>198</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141">
-        <v>33111</v>
+        <v>33818</v>
       </c>
       <c r="C141" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B142">
-        <v>33117</v>
+        <v>30881</v>
       </c>
       <c r="C142" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143">
-        <v>33123</v>
+        <v>30863</v>
       </c>
       <c r="C143" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B144">
-        <v>33131</v>
+        <v>33820</v>
       </c>
       <c r="C144" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145">
-        <v>33153</v>
+        <v>32133</v>
       </c>
       <c r="C145" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146">
-        <v>33163</v>
+        <v>30486</v>
       </c>
       <c r="C146" t="s">
-        <v>188</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147">
-        <v>33183</v>
+        <v>29941</v>
       </c>
       <c r="C147" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B148">
-        <v>33195</v>
+        <v>29899</v>
       </c>
       <c r="C148" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149">
-        <v>33205</v>
+        <v>33822</v>
       </c>
       <c r="C149" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B150">
-        <v>33213</v>
+        <v>33824</v>
       </c>
       <c r="C150" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B151">
-        <v>33243</v>
+        <v>33826</v>
       </c>
       <c r="C151" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152">
-        <v>33249</v>
+        <v>30313</v>
       </c>
       <c r="C152" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B153">
-        <v>33261</v>
+        <v>33828</v>
       </c>
       <c r="C153" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B154">
-        <v>33794</v>
+        <v>30073</v>
       </c>
       <c r="C154" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B155">
-        <v>33498</v>
+        <v>30211</v>
       </c>
       <c r="C155" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B156">
-        <v>33502</v>
+        <v>33832</v>
       </c>
       <c r="C156" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B157">
-        <v>33558</v>
+        <v>33830</v>
       </c>
       <c r="C157" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B158">
-        <v>33560</v>
+        <v>31429</v>
       </c>
       <c r="C158" t="s">
-        <v>119</v>
+        <v>220</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B159">
-        <v>33586</v>
+        <v>30389</v>
       </c>
       <c r="C159" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B160">
-        <v>33688</v>
+        <v>33834</v>
       </c>
       <c r="C160" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161">
-        <v>33710</v>
+        <v>30945</v>
       </c>
       <c r="C161" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162">
-        <v>33728</v>
+        <v>33836</v>
       </c>
       <c r="C162" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163">
-        <v>33730</v>
+        <v>30797</v>
       </c>
       <c r="C163" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B164">
-        <v>33732</v>
+        <v>33838</v>
       </c>
       <c r="C164" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165">
-        <v>33734</v>
+        <v>30843</v>
       </c>
       <c r="C165" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166">
-        <v>33736</v>
+        <v>33840</v>
       </c>
       <c r="C166" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167">
-        <v>33738</v>
+        <v>33842</v>
       </c>
       <c r="C167" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B168">
-        <v>33742</v>
+        <v>33788</v>
       </c>
       <c r="C168" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169">
-        <v>33744</v>
+        <v>30205</v>
       </c>
       <c r="C169" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170">
-        <v>33746</v>
+        <v>30717</v>
       </c>
       <c r="C170" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B171">
-        <v>33748</v>
+        <v>29931</v>
       </c>
       <c r="C171" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172">
-        <v>33750</v>
+        <v>33844</v>
       </c>
       <c r="C172" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B173">
-        <v>33752</v>
+        <v>33846</v>
       </c>
       <c r="C173" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B174">
-        <v>33754</v>
+        <v>33848</v>
       </c>
       <c r="C174" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175">
-        <v>33756</v>
+        <v>33850</v>
       </c>
       <c r="C175" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176">
-        <v>33760</v>
+        <v>33117</v>
       </c>
       <c r="C176" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B177">
-        <v>33762</v>
+        <v>33852</v>
       </c>
       <c r="C177" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178">
-        <v>33764</v>
+        <v>30981</v>
       </c>
       <c r="C178" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179">
-        <v>33766</v>
+        <v>30753</v>
       </c>
       <c r="C179" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180">
-        <v>33768</v>
+        <v>31377</v>
       </c>
       <c r="C180" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181">
-        <v>33770</v>
+        <v>29863</v>
       </c>
       <c r="C181" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182">
-        <v>33774</v>
+        <v>29957</v>
       </c>
       <c r="C182" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183">
-        <v>33776</v>
+        <v>33856</v>
       </c>
       <c r="C183" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184">
-        <v>33778</v>
+        <v>32274</v>
       </c>
       <c r="C184" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B185">
-        <v>33780</v>
+        <v>29917</v>
       </c>
       <c r="C185" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186">
-        <v>33782</v>
+        <v>31311</v>
       </c>
       <c r="C186" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187">
-        <v>33784</v>
+        <v>33498</v>
       </c>
       <c r="C187" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188">
-        <v>33786</v>
+        <v>30451</v>
       </c>
       <c r="C188" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189">
-        <v>33788</v>
+        <v>33249</v>
       </c>
       <c r="C189" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B190">
-        <v>33790</v>
+        <v>33213</v>
       </c>
       <c r="C190" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191">
-        <v>33792</v>
+        <v>29853</v>
       </c>
       <c r="C191" t="s">
-        <v>216</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192">
-        <v>33796</v>
+        <v>31885</v>
       </c>
       <c r="C192" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B193">
-        <v>33798</v>
+        <v>29869</v>
       </c>
       <c r="C193" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B194">
-        <v>33800</v>
+        <v>32021</v>
       </c>
       <c r="C194" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B195">
-        <v>33802</v>
+        <v>33858</v>
       </c>
       <c r="C195" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B196">
-        <v>33804</v>
+        <v>29859</v>
       </c>
       <c r="C196" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B197">
-        <v>33806</v>
+        <v>32816</v>
       </c>
       <c r="C197" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B198">
-        <v>33808</v>
+        <v>32672</v>
       </c>
       <c r="C198" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B199">
-        <v>33810</v>
+        <v>33710</v>
       </c>
       <c r="C199" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B200">
-        <v>33812</v>
+        <v>33860</v>
       </c>
       <c r="C200" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B201">
-        <v>33814</v>
+        <v>33862</v>
       </c>
       <c r="C201" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B202">
-        <v>33816</v>
+        <v>30151</v>
       </c>
       <c r="C202" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B203">
-        <v>33818</v>
+        <v>33560</v>
       </c>
       <c r="C203" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B204">
-        <v>33820</v>
+        <v>35673</v>
       </c>
       <c r="C204" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B205">
-        <v>33822</v>
+        <v>30403</v>
       </c>
       <c r="C205" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B206">
-        <v>33824</v>
+        <v>33864</v>
       </c>
       <c r="C206" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B207">
-        <v>33826</v>
+        <v>30209</v>
       </c>
       <c r="C207" t="s">
-        <v>205</v>
+        <v>42</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B208">
-        <v>33828</v>
+        <v>30203</v>
       </c>
       <c r="C208" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B209">
-        <v>33830</v>
+        <v>30277</v>
       </c>
       <c r="C209" t="s">
-        <v>224</v>
+        <v>47</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B210">
-        <v>33832</v>
+        <v>29855</v>
       </c>
       <c r="C210" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B211">
-        <v>33834</v>
+        <v>33866</v>
       </c>
       <c r="C211" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B212">
-        <v>33836</v>
+        <v>30287</v>
       </c>
       <c r="C212" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B213">
-        <v>33838</v>
+        <v>29819</v>
       </c>
       <c r="C213" t="s">
-        <v>157</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B214">
-        <v>33840</v>
+        <v>32131</v>
       </c>
       <c r="C214" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B215">
-        <v>33842</v>
+        <v>30117</v>
       </c>
       <c r="C215" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B216">
-        <v>33844</v>
+        <v>31447</v>
       </c>
       <c r="C216" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B217">
-        <v>33846</v>
+        <v>33868</v>
       </c>
       <c r="C217" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B218">
-        <v>33848</v>
+        <v>32203</v>
       </c>
       <c r="C218" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B219">
-        <v>33850</v>
+        <v>33243</v>
       </c>
       <c r="C219" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B220">
-        <v>33852</v>
+        <v>31881</v>
       </c>
       <c r="C220" t="s">
-        <v>206</v>
+        <v>88</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B221">
-        <v>33856</v>
+        <v>30321</v>
       </c>
       <c r="C221" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B222">
-        <v>33858</v>
+        <v>30817</v>
       </c>
       <c r="C222" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B223">
-        <v>33860</v>
+        <v>30851</v>
       </c>
       <c r="C223" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B224">
-        <v>33862</v>
+        <v>33870</v>
       </c>
       <c r="C224" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B225">
-        <v>33864</v>
+        <v>33872</v>
       </c>
       <c r="C225" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B226">
-        <v>33866</v>
+        <v>33874</v>
       </c>
       <c r="C226" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B227">
-        <v>33868</v>
+        <v>32129</v>
       </c>
       <c r="C227" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B228">
-        <v>33870</v>
+        <v>33586</v>
       </c>
       <c r="C228" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B229">
-        <v>33872</v>
+        <v>33876</v>
       </c>
       <c r="C229" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B230">
-        <v>33874</v>
+        <v>30163</v>
       </c>
       <c r="C230" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B231">
-        <v>33876</v>
+        <v>33878</v>
       </c>
       <c r="C231" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B232">
-        <v>33878</v>
+        <v>33880</v>
       </c>
       <c r="C232" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B233">
-        <v>33880</v>
+        <v>32049</v>
       </c>
       <c r="C233" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.3">
@@ -3406,37 +3406,40 @@
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B235">
-        <v>33884</v>
+        <v>33261</v>
       </c>
       <c r="C235" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B236">
-        <v>35505</v>
+        <v>29951</v>
       </c>
       <c r="C236" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B237">
-        <v>35673</v>
+        <v>33884</v>
       </c>
       <c r="C237" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B238">
-        <v>35702</v>
+        <v>29903</v>
       </c>
       <c r="C238" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:C238">
+    <sortCondition ref="C2:C238"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>